--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/Lab4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsloyola-my.sharepoint.com/personal/ceburns1_loyola_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD855A85-678C-0D4F-A767-FA0C68848C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3DAE70E-B634-418A-A874-0CEF43C7E1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="4215" yWindow="1185" windowWidth="12225" windowHeight="11295" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,85 +36,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>Test Description</t>
-  </si>
-  <si>
-    <t>DATA IN</t>
-  </si>
-  <si>
-    <t>DATA OUT</t>
-  </si>
-  <si>
-    <t>Mobile Phone Packages</t>
-  </si>
-  <si>
-    <t>Data Allotted (GB)</t>
-  </si>
-  <si>
-    <t>Price/month ($)</t>
-  </si>
-  <si>
-    <t>Cost of Additional Data ($/GB)</t>
-  </si>
-  <si>
-    <t>Coupon ($20 off $75+)</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Unlim</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>in: package</t>
+  </si>
+  <si>
+    <t>in: GB used</t>
+  </si>
+  <si>
+    <t>in: coupon?</t>
+  </si>
+  <si>
+    <t>output: Total</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>input: Package type</t>
-  </si>
-  <si>
-    <t>input: Months purchasing for</t>
-  </si>
-  <si>
-    <t>input: Additional Data Needed</t>
-  </si>
-  <si>
-    <t>Output: Cost before coupon</t>
-  </si>
-  <si>
-    <t>Cost after Coupon</t>
-  </si>
-  <si>
-    <t>Green Package 2 months</t>
-  </si>
-  <si>
-    <t>Blue Package 2 months</t>
-  </si>
-  <si>
-    <t>Purple Package 2 months</t>
-  </si>
-  <si>
-    <t>Green Package 3 months with additional 5 GB data</t>
+    <t>purple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,45 +87,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -173,35 +108,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,218 +425,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B94F62A-3D0C-2040-8FEF-E1506E31F742}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6593B6-ED15-D244-9D79-0A2DA5E53901}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" hidden="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="1">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>79.989999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="E4" s="1">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>49.99</v>
-      </c>
-      <c r="D2" s="4">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="E6" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>70</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
         <v>99.95</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="46" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
